--- a/Data/Test SWV/Excel Files/Pbp8.xlsx
+++ b/Data/Test SWV/Excel Files/Pbp8.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A147"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Apr. 5, 2023   15:16:53</t>
+          <t>Apr. 5</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023   15:16:53</t>
         </is>
       </c>
     </row>
@@ -543,882 +548,2772 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Potential/V, Diff(i/A), For(i/A), Rev(i/A)</t>
+          <t>Potential/V</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diff(i/A)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> For(i/A)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rev(i/A)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-0.004, -3.132e-5, -1.531e-5, 1.600e-5</t>
+          <t>-0.004</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.132e-5</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.531e-5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.600e-5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-0.008, -3.177e-5, -1.610e-5, 1.566e-5</t>
+          <t>-0.008</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.177e-5</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.610e-5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.566e-5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-0.012, -3.171e-5, -1.630e-5, 1.541e-5</t>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.171e-5</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.630e-5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.541e-5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-0.016, -3.162e-5, -1.642e-5, 1.520e-5</t>
+          <t>-0.016</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.162e-5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.642e-5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.520e-5</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-0.020, -3.153e-5, -1.651e-5, 1.502e-5</t>
+          <t>-0.020</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.153e-5</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.651e-5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.502e-5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-0.024, -3.144e-5, -1.658e-5, 1.486e-5</t>
+          <t>-0.024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.144e-5</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.658e-5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.486e-5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-0.028, -3.137e-5, -1.664e-5, 1.473e-5</t>
+          <t>-0.028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.137e-5</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.664e-5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.473e-5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-0.032, -3.131e-5, -1.669e-5, 1.461e-5</t>
+          <t>-0.032</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.131e-5</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.669e-5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.461e-5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-0.036, -3.127e-5, -1.676e-5, 1.452e-5</t>
+          <t>-0.036</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.127e-5</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.676e-5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.452e-5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-0.040, -3.126e-5, -1.682e-5, 1.444e-5</t>
+          <t>-0.040</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.126e-5</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.682e-5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.444e-5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-0.044, -3.125e-5, -1.688e-5, 1.437e-5</t>
+          <t>-0.044</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.125e-5</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.688e-5</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.437e-5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-0.048, -3.125e-5, -1.694e-5, 1.430e-5</t>
+          <t>-0.048</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.125e-5</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.694e-5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.430e-5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-0.052, -3.127e-5, -1.700e-5, 1.427e-5</t>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.127e-5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.700e-5</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.427e-5</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-0.056, -3.132e-5, -1.708e-5, 1.424e-5</t>
+          <t>-0.056</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.132e-5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.708e-5</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.424e-5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-0.060, -3.136e-5, -1.715e-5, 1.421e-5</t>
+          <t>-0.060</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.136e-5</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.715e-5</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.421e-5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-0.064, -3.142e-5, -1.721e-5, 1.420e-5</t>
+          <t>-0.064</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.142e-5</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.721e-5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.420e-5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-0.068, -3.148e-5, -1.729e-5, 1.419e-5</t>
+          <t>-0.068</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.148e-5</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.729e-5</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.419e-5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-0.072, -3.155e-5, -1.736e-5, 1.419e-5</t>
+          <t>-0.072</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.155e-5</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.736e-5</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.419e-5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-0.076, -3.162e-5, -1.743e-5, 1.418e-5</t>
+          <t>-0.076</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.162e-5</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.743e-5</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.418e-5</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-0.080, -3.169e-5, -1.750e-5, 1.419e-5</t>
+          <t>-0.080</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.169e-5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.750e-5</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.419e-5</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-0.084, -3.176e-5, -1.757e-5, 1.419e-5</t>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.176e-5</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.757e-5</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.419e-5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-0.088, -3.183e-5, -1.764e-5, 1.419e-5</t>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.183e-5</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.764e-5</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.419e-5</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-0.092, -3.189e-5, -1.770e-5, 1.419e-5</t>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.189e-5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.770e-5</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.419e-5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-0.096, -3.195e-5, -1.775e-5, 1.420e-5</t>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.195e-5</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.775e-5</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.420e-5</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-0.100, -3.200e-5, -1.781e-5, 1.419e-5</t>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.200e-5</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.781e-5</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.419e-5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-0.104, -3.204e-5, -1.785e-5, 1.419e-5</t>
+          <t>-0.104</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.204e-5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.785e-5</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.419e-5</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-0.108, -3.208e-5, -1.789e-5, 1.419e-5</t>
+          <t>-0.108</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.208e-5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.789e-5</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.419e-5</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-0.112, -3.210e-5, -1.793e-5, 1.417e-5</t>
+          <t>-0.112</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.210e-5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.793e-5</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.417e-5</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-0.116, -3.212e-5, -1.796e-5, 1.416e-5</t>
+          <t>-0.116</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.212e-5</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.796e-5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.416e-5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-0.120, -3.212e-5, -1.798e-5, 1.414e-5</t>
+          <t>-0.120</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.212e-5</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.798e-5</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.414e-5</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-0.124, -3.211e-5, -1.800e-5, 1.411e-5</t>
+          <t>-0.124</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.211e-5</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.800e-5</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.411e-5</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-0.128, -3.208e-5, -1.801e-5, 1.407e-5</t>
+          <t>-0.128</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.208e-5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.801e-5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.407e-5</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-0.132, -3.204e-5, -1.801e-5, 1.403e-5</t>
+          <t>-0.132</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.204e-5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.801e-5</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.403e-5</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-0.136, -3.199e-5, -1.800e-5, 1.399e-5</t>
+          <t>-0.136</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.199e-5</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.800e-5</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.399e-5</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-0.140, -3.192e-5, -1.799e-5, 1.394e-5</t>
+          <t>-0.140</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.192e-5</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.799e-5</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.394e-5</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-0.144, -3.184e-5, -1.796e-5, 1.388e-5</t>
+          <t>-0.144</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.184e-5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.796e-5</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.388e-5</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-0.148, -3.175e-5, -1.793e-5, 1.382e-5</t>
+          <t>-0.148</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.175e-5</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.793e-5</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.382e-5</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-0.152, -3.164e-5, -1.788e-5, 1.376e-5</t>
+          <t>-0.152</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.164e-5</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.788e-5</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.376e-5</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-0.156, -3.153e-5, -1.783e-5, 1.370e-5</t>
+          <t>-0.156</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.153e-5</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.783e-5</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.370e-5</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-0.160, -3.141e-5, -1.777e-5, 1.364e-5</t>
+          <t>-0.160</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.141e-5</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.777e-5</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.364e-5</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-0.164, -3.127e-5, -1.770e-5, 1.357e-5</t>
+          <t>-0.164</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.127e-5</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.770e-5</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.357e-5</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-0.168, -3.113e-5, -1.762e-5, 1.351e-5</t>
+          <t>-0.168</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.113e-5</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.762e-5</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.351e-5</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-0.172, -3.098e-5, -1.754e-5, 1.344e-5</t>
+          <t>-0.172</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.098e-5</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.754e-5</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.344e-5</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-0.176, -3.082e-5, -1.745e-5, 1.337e-5</t>
+          <t>-0.176</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.082e-5</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.745e-5</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.337e-5</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-0.180, -3.068e-5, -1.736e-5, 1.331e-5</t>
+          <t>-0.180</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.068e-5</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.736e-5</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.331e-5</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-0.184, -3.052e-5, -1.728e-5, 1.324e-5</t>
+          <t>-0.184</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.052e-5</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.728e-5</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.324e-5</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-0.188, -3.037e-5, -1.719e-5, 1.318e-5</t>
+          <t>-0.188</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.037e-5</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.719e-5</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.318e-5</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-0.192, -3.022e-5, -1.710e-5, 1.312e-5</t>
+          <t>-0.192</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.022e-5</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.710e-5</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.312e-5</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-0.196, -3.007e-5, -1.702e-5, 1.306e-5</t>
+          <t>-0.196</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.007e-5</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.702e-5</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.306e-5</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-0.200, -2.992e-5, -1.693e-5, 1.299e-5</t>
+          <t>-0.200</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.992e-5</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.693e-5</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.299e-5</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-0.204, -2.976e-5, -1.684e-5, 1.292e-5</t>
+          <t>-0.204</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.976e-5</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.684e-5</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.292e-5</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-0.208, -2.961e-5, -1.675e-5, 1.286e-5</t>
+          <t>-0.208</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.961e-5</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.675e-5</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.286e-5</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-0.212, -2.945e-5, -1.667e-5, 1.278e-5</t>
+          <t>-0.212</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.945e-5</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.667e-5</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.278e-5</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-0.216, -2.929e-5, -1.658e-5, 1.271e-5</t>
+          <t>-0.216</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.929e-5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.658e-5</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.271e-5</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-0.220, -2.913e-5, -1.649e-5, 1.263e-5</t>
+          <t>-0.220</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.913e-5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.649e-5</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.263e-5</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-0.224, -2.896e-5, -1.641e-5, 1.256e-5</t>
+          <t>-0.224</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.896e-5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.641e-5</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.256e-5</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-0.228, -2.880e-5, -1.633e-5, 1.247e-5</t>
+          <t>-0.228</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.880e-5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.633e-5</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.247e-5</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-0.232, -2.864e-5, -1.624e-5, 1.239e-5</t>
+          <t>-0.232</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.864e-5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.624e-5</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.239e-5</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-0.236, -2.848e-5, -1.616e-5, 1.231e-5</t>
+          <t>-0.236</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.848e-5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.616e-5</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.231e-5</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-0.240, -2.832e-5, -1.609e-5, 1.223e-5</t>
+          <t>-0.240</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.832e-5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.609e-5</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.223e-5</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-0.244, -2.817e-5, -1.601e-5, 1.215e-5</t>
+          <t>-0.244</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.817e-5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.601e-5</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.215e-5</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-0.248, -2.803e-5, -1.595e-5, 1.208e-5</t>
+          <t>-0.248</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.803e-5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.595e-5</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.208e-5</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-0.252, -2.788e-5, -1.588e-5, 1.200e-5</t>
+          <t>-0.252</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.788e-5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.588e-5</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.200e-5</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-0.256, -2.775e-5, -1.582e-5, 1.193e-5</t>
+          <t>-0.256</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.775e-5</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.582e-5</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.193e-5</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-0.260, -2.764e-5, -1.577e-5, 1.187e-5</t>
+          <t>-0.260</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.764e-5</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.577e-5</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.187e-5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-0.264, -2.752e-5, -1.572e-5, 1.180e-5</t>
+          <t>-0.264</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.752e-5</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.572e-5</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.180e-5</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-0.268, -2.742e-5, -1.567e-5, 1.175e-5</t>
+          <t>-0.268</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.742e-5</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.567e-5</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.175e-5</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-0.272, -2.732e-5, -1.563e-5, 1.169e-5</t>
+          <t>-0.272</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.732e-5</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.563e-5</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.169e-5</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-0.276, -2.723e-5, -1.560e-5, 1.164e-5</t>
+          <t>-0.276</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.723e-5</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.560e-5</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.164e-5</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-0.280, -2.715e-5, -1.557e-5, 1.159e-5</t>
+          <t>-0.280</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.715e-5</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.557e-5</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.159e-5</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-0.284, -2.708e-5, -1.554e-5, 1.154e-5</t>
+          <t>-0.284</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.708e-5</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.554e-5</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.154e-5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-0.288, -2.702e-5, -1.552e-5, 1.150e-5</t>
+          <t>-0.288</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.702e-5</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.552e-5</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.150e-5</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-0.292, -2.696e-5, -1.551e-5, 1.145e-5</t>
+          <t>-0.292</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.696e-5</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.551e-5</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.145e-5</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-0.296, -2.692e-5, -1.550e-5, 1.142e-5</t>
+          <t>-0.296</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.692e-5</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.550e-5</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.142e-5</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-0.300, -2.688e-5, -1.550e-5, 1.138e-5</t>
+          <t>-0.300</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.688e-5</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.550e-5</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.138e-5</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-0.304, -2.684e-5, -1.549e-5, 1.135e-5</t>
+          <t>-0.304</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.684e-5</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.549e-5</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.135e-5</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-0.308, -2.682e-5, -1.550e-5, 1.131e-5</t>
+          <t>-0.308</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.682e-5</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.550e-5</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.131e-5</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-0.312, -2.680e-5, -1.551e-5, 1.128e-5</t>
+          <t>-0.312</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.680e-5</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.551e-5</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.128e-5</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-0.316, -2.679e-5, -1.553e-5, 1.125e-5</t>
+          <t>-0.316</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.679e-5</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.553e-5</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.125e-5</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-0.320, -2.678e-5, -1.555e-5, 1.123e-5</t>
+          <t>-0.320</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.678e-5</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.555e-5</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.123e-5</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-0.324, -2.678e-5, -1.558e-5, 1.120e-5</t>
+          <t>-0.324</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.678e-5</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.558e-5</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.120e-5</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-0.328, -2.679e-5, -1.561e-5, 1.118e-5</t>
+          <t>-0.328</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.679e-5</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.561e-5</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.118e-5</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-0.332, -2.680e-5, -1.565e-5, 1.115e-5</t>
+          <t>-0.332</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.680e-5</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.565e-5</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.115e-5</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-0.336, -2.682e-5, -1.569e-5, 1.113e-5</t>
+          <t>-0.336</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.682e-5</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.569e-5</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.113e-5</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-0.340, -2.685e-5, -1.574e-5, 1.111e-5</t>
+          <t>-0.340</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.685e-5</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.574e-5</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.111e-5</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-0.344, -2.688e-5, -1.579e-5, 1.109e-5</t>
+          <t>-0.344</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.688e-5</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.579e-5</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.109e-5</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-0.348, -2.692e-5, -1.585e-5, 1.107e-5</t>
+          <t>-0.348</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.692e-5</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.585e-5</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.107e-5</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-0.352, -2.696e-5, -1.591e-5, 1.105e-5</t>
+          <t>-0.352</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.696e-5</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.591e-5</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.105e-5</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-0.356, -2.700e-5, -1.599e-5, 1.102e-5</t>
+          <t>-0.356</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.700e-5</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.599e-5</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.102e-5</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-0.360, -2.706e-5, -1.606e-5, 1.100e-5</t>
+          <t>-0.360</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.706e-5</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.606e-5</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.100e-5</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>-0.364, -2.712e-5, -1.614e-5, 1.098e-5</t>
+          <t>-0.364</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.712e-5</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.614e-5</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.098e-5</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-0.368, -2.718e-5, -1.623e-5, 1.095e-5</t>
+          <t>-0.368</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.718e-5</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.623e-5</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.095e-5</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-0.372, -2.725e-5, -1.632e-5, 1.093e-5</t>
+          <t>-0.372</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.725e-5</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.632e-5</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.093e-5</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-0.376, -2.733e-5, -1.642e-5, 1.091e-5</t>
+          <t>-0.376</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.733e-5</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.642e-5</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.091e-5</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>-0.380, -2.740e-5, -1.652e-5, 1.088e-5</t>
+          <t>-0.380</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.740e-5</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.652e-5</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.088e-5</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>-0.384, -2.748e-5, -1.662e-5, 1.086e-5</t>
+          <t>-0.384</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.748e-5</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.662e-5</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.086e-5</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>-0.388, -2.757e-5, -1.674e-5, 1.083e-5</t>
+          <t>-0.388</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.757e-5</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.674e-5</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.083e-5</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>-0.392, -2.766e-5, -1.686e-5, 1.080e-5</t>
+          <t>-0.392</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.766e-5</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.686e-5</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.080e-5</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>-0.396, -2.775e-5, -1.698e-5, 1.077e-5</t>
+          <t>-0.396</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.775e-5</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.698e-5</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.077e-5</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>-0.400, -2.785e-5, -1.711e-5, 1.074e-5</t>
+          <t>-0.400</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.785e-5</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.711e-5</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.074e-5</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>-0.404, -2.795e-5, -1.725e-5, 1.070e-5</t>
+          <t>-0.404</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.795e-5</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.725e-5</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.070e-5</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>-0.408, -2.806e-5, -1.739e-5, 1.067e-5</t>
+          <t>-0.408</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.806e-5</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.739e-5</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.067e-5</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>-0.412, -2.817e-5, -1.755e-5, 1.063e-5</t>
+          <t>-0.412</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.817e-5</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.755e-5</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.063e-5</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>-0.416, -2.829e-5, -1.770e-5, 1.059e-5</t>
+          <t>-0.416</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.829e-5</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.770e-5</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.059e-5</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>-0.420, -2.841e-5, -1.787e-5, 1.054e-5</t>
+          <t>-0.420</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.841e-5</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.787e-5</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.054e-5</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>-0.424, -2.854e-5, -1.803e-5, 1.050e-5</t>
+          <t>-0.424</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.854e-5</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.803e-5</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.050e-5</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>-0.428, -2.867e-5, -1.821e-5, 1.045e-5</t>
+          <t>-0.428</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.867e-5</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.821e-5</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.045e-5</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>-0.432, -2.879e-5, -1.839e-5, 1.040e-5</t>
+          <t>-0.432</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.879e-5</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.839e-5</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.040e-5</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>-0.436, -2.893e-5, -1.858e-5, 1.035e-5</t>
+          <t>-0.436</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.893e-5</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.858e-5</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.035e-5</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>-0.440, -2.907e-5, -1.878e-5, 1.029e-5</t>
+          <t>-0.440</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.907e-5</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.878e-5</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.029e-5</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>-0.444, -2.921e-5, -1.898e-5, 1.023e-5</t>
+          <t>-0.444</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.921e-5</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.898e-5</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.023e-5</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>-0.448, -2.936e-5, -1.919e-5, 1.017e-5</t>
+          <t>-0.448</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.936e-5</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.919e-5</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.017e-5</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>-0.452, -2.951e-5, -1.941e-5, 1.010e-5</t>
+          <t>-0.452</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.951e-5</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.941e-5</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.010e-5</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>-0.456, -2.966e-5, -1.963e-5, 1.002e-5</t>
+          <t>-0.456</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.966e-5</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.963e-5</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.002e-5</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>-0.460, -2.982e-5, -1.987e-5, 9.950e-6</t>
+          <t>-0.460</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.982e-5</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.987e-5</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.950e-6</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>-0.464, -2.999e-5, -2.011e-5, 9.875e-6</t>
+          <t>-0.464</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.999e-5</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.011e-5</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.875e-6</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>-0.468, -3.015e-5, -2.036e-5, 9.791e-6</t>
+          <t>-0.468</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.015e-5</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.036e-5</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.791e-6</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>-0.472, -3.033e-5, -2.062e-5, 9.704e-6</t>
+          <t>-0.472</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.033e-5</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.062e-5</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.704e-6</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>-0.476, -3.050e-5, -2.089e-5, 9.613e-6</t>
+          <t>-0.476</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.050e-5</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.089e-5</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.613e-6</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>-0.480, -3.068e-5, -2.116e-5, 9.519e-6</t>
+          <t>-0.480</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.068e-5</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.116e-5</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.519e-6</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>-0.484, -3.087e-5, -2.145e-5, 9.415e-6</t>
+          <t>-0.484</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.087e-5</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.145e-5</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.415e-6</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>-0.488, -3.105e-5, -2.174e-5, 9.312e-6</t>
+          <t>-0.488</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.105e-5</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.174e-5</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.312e-6</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>-0.492, -3.125e-5, -2.205e-5, 9.203e-6</t>
+          <t>-0.492</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.125e-5</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.205e-5</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.203e-6</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>-0.496, -3.145e-5, -2.236e-5, 9.089e-6</t>
+          <t>-0.496</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.145e-5</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.236e-5</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.089e-6</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>-0.500, -3.165e-5, -2.268e-5, 8.968e-6</t>
+          <t>-0.500</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.165e-5</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.268e-5</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.968e-6</t>
         </is>
       </c>
     </row>
